--- a/timing.xlsx
+++ b/timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Hyderabad\CSF364 DA\ass 2\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCCDF19-2F30-4A5D-835D-20146C65F371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC28D16-E350-4265-82D3-B3DD0408E7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,11 +109,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -123,11 +122,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs number of bases</a:t>
+              <a:t>time vs number of bases</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -145,11 +140,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -182,27 +176,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -236,19 +244,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>630.9067</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>651.08759999999995</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>679.62649999999996</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>714.46510000000001</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>751.49680000000001</c:v>
+                  <c:v>1569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,9 +290,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -299,11 +308,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -312,16 +320,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>number of bases(n)</a:t>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>number of bases(n) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -338,11 +339,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -362,9 +362,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -378,9 +377,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -406,9 +404,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -423,11 +422,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -436,20 +434,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t>time(ms</a:t>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>time(ms) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -466,11 +453,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -490,9 +476,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -506,9 +491,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -544,11 +528,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -596,11 +583,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -610,11 +596,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> vs number of pairs</a:t>
+              <a:t>time vs number of pairs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -632,11 +614,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -658,27 +639,41 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -752,9 +747,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -769,11 +765,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -782,16 +777,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>number of pairs(m)</a:t>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>number of pairs(m) </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -808,11 +796,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -832,9 +819,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -848,9 +834,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -876,9 +861,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -893,11 +879,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -925,11 +910,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -949,9 +933,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -965,9 +948,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1003,11 +985,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1115,211 +1100,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1330,78 +1139,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1409,295 +1147,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1707,23 +1165,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1731,63 +1184,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1811,21 +1324,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1835,7 +1345,328 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1846,16 +1677,296 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1865,80 +1976,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1950,14 +1991,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1969,14 +2009,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1988,27 +2027,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2016,9 +2054,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2028,14 +2065,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2047,12 +2083,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2061,14 +2096,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2077,9 +2113,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2089,17 +2124,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2111,37 +2147,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2488,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="123" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>630.9067</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2529,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>651.08759999999995</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2540,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>679.62649999999996</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2551,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>714.46510000000001</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2562,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>751.49680000000001</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
